--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobda\Desktop\Insper\2º Semestre\Ciência dos Dados\DP\Projeto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B57801-40C3-4802-9BF6-ED8AFEE0CAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC293D9-4437-4D30-B7AA-8D8542DC8BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1009">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3378,6 +3378,27 @@
   </si>
   <si>
     <t>pra que pago netflix se eu não vejo nada????</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
+    <t>O que é:</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
+  </si>
+  <si>
+    <t>Elogio</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>Sugestão</t>
   </si>
 </sst>
 </file>
@@ -3436,10 +3457,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3779,90 +3804,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A601"/>
+  <dimension ref="A1:V601"/>
   <sheetViews>
-    <sheetView topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="A603" sqref="A603"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U2" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6794,95 +6852,132 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:V401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="22" max="22" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U2" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>616</v>
       </c>
@@ -8814,5 +8909,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Netflix.xlsx
+++ b/Netflix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobda\Desktop\Insper\2º Semestre\Ciência dos Dados\DP\Projeto-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59AD869-3E6F-49EF-B0F1-B7843BDCE26C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E9554-CA27-44F9-A804-3F570FAC5041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1003">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3391,24 +3391,6 @@
   </si>
   <si>
     <t>Classificacao</t>
-  </si>
-  <si>
-    <t>Legenda:</t>
-  </si>
-  <si>
-    <t>O que é:</t>
-  </si>
-  <si>
-    <t>Irrelevante</t>
-  </si>
-  <si>
-    <t>Elogio</t>
-  </si>
-  <si>
-    <t>Crítica</t>
-  </si>
-  <si>
-    <t>Sugestão</t>
   </si>
 </sst>
 </file>
@@ -3846,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3867,12 +3849,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>1004</v>
-      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3881,12 +3859,7 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1005</v>
-      </c>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3895,12 +3868,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1006</v>
-      </c>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3909,12 +3877,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1007</v>
-      </c>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3923,12 +3886,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <v>3</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1008</v>
-      </c>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8700,8 +8658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8724,12 +8682,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>1004</v>
-      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8738,12 +8692,7 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1005</v>
-      </c>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8752,12 +8701,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1006</v>
-      </c>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8766,12 +8710,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1007</v>
-      </c>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8780,12 +8719,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <v>3</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1008</v>
-      </c>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
